--- a/documentations/ReadMe.xlsx
+++ b/documentations/ReadMe.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLIM\Terms folder\Term-2\Business Analytics\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDBE8E3-42A5-4449-B576-21DA33C618B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B6015C-8043-4579-A00F-07579B559AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCA1AAAE-4E2C-45E7-9A68-F61BC10F2BF7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Column details" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
+    <sheet name="Column details" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Containment_and_closure_policies">'Column details'!$A$20:$E$36</definedName>
@@ -585,7 +585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -678,6 +678,28 @@
         <color theme="0"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
       <top style="thin">
         <color theme="0"/>
       </top>
@@ -701,12 +723,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="0"/>
+      </top>
+      <bottom style="dotted">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color theme="0"/>
+      </left>
+      <right style="dotted">
+        <color theme="0"/>
+      </right>
+      <top style="dotted">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,17 +792,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1067,11 +1121,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B7180-2F82-46E9-8052-3F95F037A567}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="12"/>
+    <col min="4" max="4" width="19.5546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="12"/>
+    <col min="11" max="11" width="28.6640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+    </row>
+    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J17"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C20" location="Containment_and_closure_policies" display="Click here" xr:uid="{E10175FE-8D04-4287-91B9-A114CCF0E7BF}"/>
+    <hyperlink ref="C21" location="Economic_policies" display="Click here" xr:uid="{B46B3610-9C11-4C2C-8302-A48AE455C8FC}"/>
+    <hyperlink ref="C22" location="Health_system_policies" display="Click here" xr:uid="{7257A4EE-740E-4FE7-A6AB-41FF84D78375}"/>
+    <hyperlink ref="C23" location="Miscellaneous_policies" display="Click here" xr:uid="{F96279E0-630D-452A-A9F1-EB94B31594A5}"/>
+    <hyperlink ref="C24" r:id="rId1" xr:uid="{542E2354-1AA6-4034-B172-0646F988CD91}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C34C7A7-A008-48C4-9012-CE1E0A28ACF2}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1848,328 +2237,4 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B7180-2F82-46E9-8052-3F95F037A567}">
-  <dimension ref="A1:K24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="3.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="12"/>
-    <col min="4" max="4" width="19.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="12"/>
-    <col min="11" max="11" width="28.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="14"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="14"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="14"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C23" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:J16"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C19" location="Containment_and_closure_policies" display="Click here" xr:uid="{E10175FE-8D04-4287-91B9-A114CCF0E7BF}"/>
-    <hyperlink ref="C20" location="Economic_policies" display="Click here" xr:uid="{B46B3610-9C11-4C2C-8302-A48AE455C8FC}"/>
-    <hyperlink ref="C21" location="Health_system_policies" display="Click here" xr:uid="{7257A4EE-740E-4FE7-A6AB-41FF84D78375}"/>
-    <hyperlink ref="C22" location="Miscellaneous_policies" display="Click here" xr:uid="{F96279E0-630D-452A-A9F1-EB94B31594A5}"/>
-    <hyperlink ref="C23" r:id="rId1" xr:uid="{542E2354-1AA6-4034-B172-0646F988CD91}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentations/ReadMe.xlsx
+++ b/documentations/ReadMe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLIM\Terms folder\Term-2\Business Analytics\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B6015C-8043-4579-A00F-07579B559AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648F163-F920-49F1-9DB2-07889399528F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCA1AAAE-4E2C-45E7-9A68-F61BC10F2BF7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FCA1AAAE-4E2C-45E7-9A68-F61BC10F2BF7}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
@@ -756,19 +756,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,16 +791,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1124,321 +1127,321 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2B7180-2F82-46E9-8052-3F95F037A567}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="12"/>
-    <col min="4" max="4" width="19.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="12"/>
-    <col min="11" max="11" width="28.6640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="3.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="10"/>
+    <col min="4" max="4" width="19.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="10"/>
+    <col min="11" max="11" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+    </row>
+    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16"/>
+      <c r="B2" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="14"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="14"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="14"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="14"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="14"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="14"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="14"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="14"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="14"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="14"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="14"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="14"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="14"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="12"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="14"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="16" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="14"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="16" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="16" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1459,210 +1462,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C34C7A7-A008-48C4-9012-CE1E0A28ACF2}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.21875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="73.109375" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="34.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73.109375" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="8"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="8"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="8"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="8"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1674,265 +1677,265 @@
       <c r="E21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="8"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="8"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3" t="s">
+      <c r="B27" s="22"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="8"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="8"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="B31" s="22"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="8"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="96.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F32" s="8"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="8"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="8"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="B35" s="22"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="8"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1944,109 +1947,109 @@
       <c r="E38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="8"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="82.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F39" s="8"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="8"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="8"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F42" s="8"/>
+      <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="8"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="8"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -2058,127 +2061,127 @@
       <c r="E45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="8"/>
+      <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="69" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F46" s="8"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="22"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="8"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="8"/>
+      <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="8"/>
+      <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="8"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="8"/>
+      <c r="F51" s="6"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="8"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2190,35 +2193,42 @@
       <c r="E53" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F53" s="8"/>
+      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F54" s="8"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A52:E52"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B46:B47"/>
@@ -2226,13 +2236,6 @@
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A52:E52"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentations/ReadMe.xlsx
+++ b/documentations/ReadMe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLIM\Terms folder\Term-2\Business Analytics\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLIM\Terms folder\Term-2\Business Analytics\Final Project\Final\Section-B_Group-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0648F163-F920-49F1-9DB2-07889399528F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEFF845-DFF2-47B1-A545-CF4010C2570E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FCA1AAAE-4E2C-45E7-9A68-F61BC10F2BF7}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="138">
   <si>
     <t>Columns</t>
   </si>
@@ -508,6 +508,36 @@
   </si>
   <si>
     <t>Index methodology documentation</t>
+  </si>
+  <si>
+    <t>Newly aded columns</t>
+  </si>
+  <si>
+    <t>Actual_Date</t>
+  </si>
+  <si>
+    <t>Date converted from text to date format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel function </t>
+  </si>
+  <si>
+    <t>NewCases</t>
+  </si>
+  <si>
+    <t>Newly added cases on any particular date</t>
+  </si>
+  <si>
+    <t>RateofInfection</t>
+  </si>
+  <si>
+    <t>Rate at which confirmed cases are raising day-after-other</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -779,9 +809,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -795,20 +822,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1133,315 +1163,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="10"/>
-    <col min="4" max="4" width="19.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="10"/>
-    <col min="11" max="11" width="28.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="3.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="19.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="9"/>
+    <col min="11" max="11" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="20" t="s">
+    <row r="1" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15"/>
+      <c r="B2" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="12"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="12"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="12"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="12"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="12"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="12"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="12"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="12"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="12"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="12"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="12"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="12"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="10"/>
       <c r="B19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1460,10 +1490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C34C7A7-A008-48C4-9012-CE1E0A28ACF2}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1480,7 +1510,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
@@ -1490,7 +1520,7 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="2" t="s">
         <v>94</v>
       </c>
@@ -1500,7 +1530,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="2" t="s">
         <v>95</v>
       </c>
@@ -1510,145 +1540,145 @@
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="2" t="s">
         <v>96</v>
       </c>
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="24"/>
       <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="24"/>
       <c r="C6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="2" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
+      <c r="A18" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="22"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1683,7 +1713,7 @@
       <c r="A22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="24" t="s">
         <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -1701,7 +1731,7 @@
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1715,7 +1745,7 @@
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="24" t="s">
         <v>106</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -1733,7 +1763,7 @@
       <c r="A25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2" t="s">
         <v>12</v>
@@ -1747,7 +1777,7 @@
       <c r="A26" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="24" t="s">
         <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1765,7 +1795,7 @@
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1779,7 +1809,7 @@
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1797,7 +1827,7 @@
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="s">
         <v>12</v>
@@ -1811,7 +1841,7 @@
       <c r="A30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="24" t="s">
         <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -1829,7 +1859,7 @@
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="24"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
         <v>12</v>
@@ -1843,7 +1873,7 @@
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="24" t="s">
         <v>110</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -1861,7 +1891,7 @@
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="24"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2" t="s">
         <v>12</v>
@@ -1875,7 +1905,7 @@
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="24" t="s">
         <v>111</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -1893,7 +1923,7 @@
       <c r="A35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="24"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2" t="s">
         <v>12</v>
@@ -1953,7 +1983,7 @@
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="24" t="s">
         <v>113</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -1971,7 +2001,7 @@
       <c r="A40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="24"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
         <v>46</v>
@@ -2067,7 +2097,7 @@
       <c r="A46" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="24" t="s">
         <v>117</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -2085,7 +2115,7 @@
       <c r="A47" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="22"/>
+      <c r="B47" s="24"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
         <v>12</v>
@@ -2214,14 +2244,83 @@
       <c r="F54" s="6"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="B1:B19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A52:E52"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
@@ -2232,10 +2331,6 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B1:B19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A44:E44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
